--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7AAA04-DC71-48D8-A62F-D6E4D2525FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA5FBF-5F9B-49F9-9A89-22A14C777523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:AJ534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C62" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75:W75"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4596,25 +4596,25 @@
         <v>1</v>
       </c>
       <c r="P75" s="37">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q75" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="V75" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W75" s="37">
         <v>0</v>
@@ -5247,31 +5247,31 @@
       </c>
       <c r="O88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="P88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0.208125</v>
       </c>
       <c r="Q88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="R88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="S88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="T88" s="38">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0</v>
       </c>
       <c r="U88" s="38">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0</v>
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
@@ -22279,7 +22279,7 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -22447,31 +22447,31 @@
       </c>
       <c r="Q2" s="2">
         <f>'Inflation Reduction Act'!O88</f>
-        <v>0.41625000000000001</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="R2" s="2">
         <f>'Inflation Reduction Act'!P88</f>
-        <v>0.41625000000000001</v>
+        <v>0.208125</v>
       </c>
       <c r="S2" s="2">
         <f>'Inflation Reduction Act'!Q88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f>'Inflation Reduction Act'!R88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f>'Inflation Reduction Act'!S88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f>'Inflation Reduction Act'!T88</f>
-        <v>0.31218750000000001</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f>'Inflation Reduction Act'!U88</f>
-        <v>0.208125</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f>'Inflation Reduction Act'!V88</f>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA5FBF-5F9B-49F9-9A89-22A14C777523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF88EF0F-F5FD-4CFA-A405-3A4735CD1843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:AJ534"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="Y75" sqref="Y75:AD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4596,31 +4596,32 @@
         <v>1</v>
       </c>
       <c r="P75" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="37">
+        <v>1</v>
+      </c>
+      <c r="R75" s="37">
+        <v>1</v>
+      </c>
+      <c r="S75" s="37">
+        <v>1</v>
+      </c>
+      <c r="T75" s="37">
+        <v>1</v>
+      </c>
+      <c r="U75" s="37">
+        <v>1</v>
+      </c>
+      <c r="V75" s="37">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="W75" s="37">
         <v>0.75</v>
       </c>
-      <c r="Q75" s="37">
+      <c r="X75" s="37">
         <v>0.5</v>
-      </c>
-      <c r="R75" s="37">
-        <v>0</v>
-      </c>
-      <c r="S75" s="37">
-        <v>0</v>
-      </c>
-      <c r="T75" s="37">
-        <v>0</v>
-      </c>
-      <c r="U75" s="37">
-        <v>0</v>
-      </c>
-      <c r="V75" s="37">
-        <v>0</v>
-      </c>
-      <c r="W75" s="37">
-        <v>0</v>
-      </c>
-      <c r="X75" s="37">
-        <v>0</v>
       </c>
       <c r="Y75" s="37">
         <v>0</v>
@@ -5247,39 +5248,39 @@
       </c>
       <c r="O88" s="38">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="P88" s="38">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="Q88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="R88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="S88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="T88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="U88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="W88" s="31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="X88" s="31">
         <f t="shared" si="5"/>
@@ -22279,8 +22280,8 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22447,61 +22448,61 @@
       </c>
       <c r="Q2" s="2">
         <f>'Inflation Reduction Act'!O88</f>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="R2" s="2">
         <f>'Inflation Reduction Act'!P88</f>
-        <v>0.208125</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="S2" s="2">
         <f>'Inflation Reduction Act'!Q88</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="T2" s="2">
         <f>'Inflation Reduction Act'!R88</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="U2" s="2">
         <f>'Inflation Reduction Act'!S88</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="V2" s="2">
         <f>'Inflation Reduction Act'!T88</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="W2" s="2">
         <f>'Inflation Reduction Act'!U88</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
+        <v>0.41625000000000001</v>
+      </c>
+      <c r="X2" s="2">
         <f>'Inflation Reduction Act'!V88</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
+        <v>0.31218750000000001</v>
+      </c>
+      <c r="Y2" s="2">
         <f>'Inflation Reduction Act'!W88</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
+        <v>0.208125</v>
+      </c>
+      <c r="Z2" s="2">
         <f>'Inflation Reduction Act'!X88</f>
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="2">
         <f>'Inflation Reduction Act'!Y88</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="2">
         <f>'Inflation Reduction Act'!Z88</f>
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="2">
         <f>'Inflation Reduction Act'!AA88</f>
         <v>0</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="2">
         <f>'Inflation Reduction Act'!AB88</f>
         <v>0</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="2">
         <f>'Inflation Reduction Act'!AC88</f>
         <v>0</v>
       </c>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF88EF0F-F5FD-4CFA-A405-3A4735CD1843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232F932-1A86-4F1A-9321-F34C4882B4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,7 +979,7 @@
   <dimension ref="A1:AJ534"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="Y75" sqref="Y75:AD75"/>
+      <selection activeCell="AC80" sqref="AC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4618,13 +4618,14 @@
         <v>1</v>
       </c>
       <c r="W75" s="37">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="X75" s="37">
         <v>0.75</v>
       </c>
-      <c r="X75" s="37">
+      <c r="Y75" s="37">
         <v>0.5</v>
-      </c>
-      <c r="Y75" s="37">
-        <v>0</v>
       </c>
       <c r="Z75" s="37">
         <v>0</v>
@@ -4641,7 +4642,7 @@
       <c r="AD75" s="37">
         <v>0</v>
       </c>
-      <c r="AE75" s="5"/>
+      <c r="AE75" s="37"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
@@ -5276,15 +5277,15 @@
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="W88" s="31">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="X88" s="31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="Y88" s="31">
         <f t="shared" si="5"/>
@@ -22476,15 +22477,15 @@
       </c>
       <c r="X2" s="2">
         <f>'Inflation Reduction Act'!V88</f>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="Y2" s="2">
         <f>'Inflation Reduction Act'!W88</f>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="Z2" s="2">
         <f>'Inflation Reduction Act'!X88</f>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="AA2" s="2">
         <f>'Inflation Reduction Act'!Y88</f>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B21F7-7DC3-4F30-BB66-A9166A9537C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D19017-3183-4837-BB49-85C516340803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -978,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:AJ534"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="AD75" sqref="B75:AD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4557,67 +4557,67 @@
         <v>0</v>
       </c>
       <c r="C75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" s="37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="W75" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X75" s="37">
         <v>0</v>
@@ -5195,87 +5195,87 @@
       </c>
       <c r="B88" s="38">
         <f t="shared" ref="B88:C88" si="4">C88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="C88" s="38">
         <f t="shared" si="4"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="D88" s="38">
         <f t="shared" ref="D88:AC88" si="5">(($B$78*C34+$B$77*(1-C34))+($B$80*C66+$B$79*(1-C66))+($B$82*$B$83))*(1-$B$81)*E75</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="E88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="F88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="G88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="H88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="J88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="K88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="L88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="M88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="N88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="O88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="P88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="R88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="S88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="T88" s="38">
         <f t="shared" si="5"/>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="U88" s="38">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0</v>
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0</v>
       </c>
       <c r="W88" s="31">
         <f t="shared" si="5"/>
@@ -22279,7 +22279,7 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:AE2"/>
     </sheetView>
   </sheetViews>
@@ -22395,87 +22395,87 @@
       </c>
       <c r="D2" s="2">
         <f>'Inflation Reduction Act'!B88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <f>'Inflation Reduction Act'!C88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <f>'Inflation Reduction Act'!D88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <f>'Inflation Reduction Act'!E88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <f>'Inflation Reduction Act'!F88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <f>'Inflation Reduction Act'!G88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <f>'Inflation Reduction Act'!H88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
         <f>'Inflation Reduction Act'!I88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <f>'Inflation Reduction Act'!J88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
         <f>'Inflation Reduction Act'!K88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <f>'Inflation Reduction Act'!L88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
         <f>'Inflation Reduction Act'!M88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
         <f>'Inflation Reduction Act'!N88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
         <f>'Inflation Reduction Act'!O88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
         <f>'Inflation Reduction Act'!P88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <f>'Inflation Reduction Act'!Q88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2">
         <f>'Inflation Reduction Act'!R88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
         <f>'Inflation Reduction Act'!S88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2">
         <f>'Inflation Reduction Act'!T88</f>
-        <v>0.41625000000000001</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2">
         <f>'Inflation Reduction Act'!U88</f>
-        <v>0.31218750000000001</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <f>'Inflation Reduction Act'!V88</f>
-        <v>0.208125</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
         <f>'Inflation Reduction Act'!W88</f>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B21F7-7DC3-4F30-BB66-A9166A9537C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40724972-2873-4441-97DA-52FF5D7F6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -978,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:AJ534"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="V75" sqref="V75:Y75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4614,13 +4614,13 @@
         <v>1</v>
       </c>
       <c r="V75" s="37">
+        <v>1</v>
+      </c>
+      <c r="W75" s="37">
         <v>0.75</v>
       </c>
-      <c r="W75" s="37">
+      <c r="X75" s="37">
         <v>0.5</v>
-      </c>
-      <c r="X75" s="37">
-        <v>0</v>
       </c>
       <c r="Y75" s="37">
         <v>0</v>
@@ -5271,15 +5271,15 @@
       </c>
       <c r="U88" s="38">
         <f t="shared" si="5"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="V88" s="38">
         <f t="shared" si="5"/>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="W88" s="31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="X88" s="31">
         <f t="shared" si="5"/>
@@ -22471,15 +22471,15 @@
       </c>
       <c r="W2" s="2">
         <f>'Inflation Reduction Act'!U88</f>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="X2" s="2">
         <f>'Inflation Reduction Act'!V88</f>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="Y2" s="2">
         <f>'Inflation Reduction Act'!W88</f>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="Z2" s="2">
         <f>'Inflation Reduction Act'!X88</f>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9973D685-4A5C-46E8-9101-63C894A941CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD3E038-2CE1-4B0E-859B-89B6E7160989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>MMT</t>
   </si>
   <si>
-    <t>Latest calibration year target passed: 2036</t>
-  </si>
-  <si>
     <t>https://www.nrel.gov/docs/fy25osti/92256.pdf</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>ITC Phase-out Scheulde, batteries</t>
+  </si>
+  <si>
+    <t>Latest calibration year target passed: 2035</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A1:BV252"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158:AC158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1861,16 +1861,16 @@
     </row>
     <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1968,16 +1968,16 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="15" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="44" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="88" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="89" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="91" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="93" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" s="43">
         <v>3</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="94" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" s="43">
         <v>15</v>
@@ -5874,13 +5874,13 @@
     </row>
     <row r="95" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B95" s="5">
         <v>1.6687000000000001</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="96" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B96" s="45">
         <v>0.88711067149387013</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="97" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A97" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B97" s="46">
         <v>10</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="99" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" s="48">
         <f>B93*B95*B96</f>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="100" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="48">
         <f>B94*B95*B96</f>
@@ -6210,13 +6210,13 @@
     </row>
     <row r="103" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="31">
+        <v>0</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B103" s="31">
-        <v>0</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -6260,7 +6260,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="108" spans="1:36" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="33"/>
       <c r="C108" s="34"/>
@@ -6461,10 +6461,10 @@
     <row r="109" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="51"/>
       <c r="B109" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="110" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="30">
         <v>3</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="113" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113" s="36">
         <f t="shared" ref="B113:AC113" si="4">INDEX(17:17,MATCH(B112-$B$110,16:16,0))</f>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="114" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" s="36">
         <f>INDEX(17:17,MATCH(B112-$C$110,16:16,0))</f>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="116" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="30"/>
       <c r="C116" s="30"/>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="118" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118" s="37">
         <f>((($B$100*C50+$B$99*(1-C50))*(1+($B$102*C82+$B$101*(1-C82))))+(($B$100*C50+$B$99*(1-C50))*$B$105*$B$106))*B113*(1-$B$104)</f>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="120" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="52">
         <v>0</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="121" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B121" s="52"/>
       <c r="C121" s="52"/>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="123" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123" s="37">
         <f>15*$B$96</f>
@@ -7641,19 +7641,19 @@
     <row r="126" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="51"/>
       <c r="B126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C126" s="37" t="s">
+      <c r="D126" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D126" s="37" t="s">
+      <c r="E126" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E126" s="30" t="s">
-        <v>108</v>
-      </c>
       <c r="F126" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="127" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" s="5">
         <v>1</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="130" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B130" s="36">
         <f>B113</f>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="131" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B131" s="36">
         <f>INDEX(17:17,MATCH(B129-$C$127,16:16,0))</f>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="132" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B132" s="36">
         <f>INDEX(17:17,MATCH(B129-$D$127,16:16,0))</f>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="133" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B133" s="36">
         <f>INDEX(17:17,MATCH(B129-$E$127,16:16,0))</f>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="134" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B134" s="36">
         <f>INDEX(17:17,MATCH(B129-$F$127,16:16,0))</f>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="146" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B146" s="52">
         <f>(($B$137*C50+$B$136*(1-C50))+($B$139*C80+$B$138*(1-C80))+($B$141*$B$142))*(1-$B$140)*B130</f>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="147" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="149" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B149" s="37">
         <f>(($B$137*C50+$B$136*(1-C50))+($B$139*C82+$B$138*(1-C82))+($B$141*$B$142))*(1-$B$140)*B131</f>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="152" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B152" s="37">
         <f>(($B$137*C50+$B$136*(1-C50))+($B$139*C82+$B$138*(1-C82))+($B$141*$B$142))*(1-$B$140)*B132</f>
@@ -9990,14 +9990,14 @@
     </row>
     <row r="158" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B158" s="37">
-        <f>(($B$137*C50+$B$136*(1-C50))+($B$139*C82+$B$138*(1-C82))+($B$141*$B$142))*(1-$B$140)*B134</f>
+        <f>(($B$137*C50+$B$136*(1-C50))+($B$139*C82)+($B$141*$B$142))*(1-$B$140)*B134</f>
         <v>0.41625000000000001</v>
       </c>
       <c r="C158" s="37">
-        <f t="shared" ref="C158:AC158" si="17">(($B$137*D50+$B$136*(1-D50))+($B$139*D82+$B$138*(1-D82))+($B$141*$B$142))*(1-$B$140)*C134</f>
+        <f t="shared" ref="C158:AC158" si="17">(($B$137*D50+$B$136*(1-D50))+($B$139*D82)+($B$141*$B$142))*(1-$B$140)*C134</f>
         <v>0.41625000000000001</v>
       </c>
       <c r="D158" s="37">
@@ -10114,7 +10114,7 @@
     </row>
     <row r="159" spans="1:74" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B159" s="38"/>
       <c r="C159" s="38"/>
@@ -10286,7 +10286,7 @@
     </row>
     <row r="161" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B161" s="53">
         <f>'[1]Solar - Utility PV'!O152/1000</f>
@@ -10448,7 +10448,7 @@
     </row>
     <row r="162" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B162" s="27">
         <v>0.25</v>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="165" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B165" s="53">
         <f>B120</f>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="167" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B167" s="5">
         <v>100</v>
@@ -11138,7 +11138,7 @@
     </row>
     <row r="168" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B168" s="5">
         <f>$B$167*8760*B162</f>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="169" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B169" s="41">
         <v>7.0000000000000007E-2</v>
@@ -11380,7 +11380,7 @@
     </row>
     <row r="170" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B170" s="42">
         <v>10</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="172" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B172" s="54">
         <f>$B$167*10^6*B161*B164</f>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="173" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B173" s="54">
         <f>B168*B165</f>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="174" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B174" s="54">
         <f>NPV($B$169,B173*$B$170)</f>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="175" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B175" s="54">
         <f>B173*$B$170</f>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="177" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>IF(B172&gt;B174,"ITC","PTC")</f>
@@ -17722,7 +17722,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AE2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
+++ b/InputData/elec/BPSpUGBCD/BAU Subsidy per Unit Grid Battery Capacity Deployed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\BPSpUGBCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD3E038-2CE1-4B0E-859B-89B6E7160989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF49387-40D7-4827-B5F4-11DFF6188CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
     <t>ITC Phase-out Scheulde, batteries</t>
   </si>
   <si>
-    <t>Latest calibration year target passed: 2035</t>
+    <t>Latest calibration year target passed: 2036</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1351,14 +1351,14 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,27 +1366,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1404,11 +1404,11 @@
   </sheetPr>
   <dimension ref="A1:BV252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="94.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="6" customWidth="1"/>
@@ -1420,7 +1420,7 @@
     <col min="37" max="16384" width="12.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="12.75">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:37" ht="305.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" ht="305.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="12.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1538,7 +1538,7 @@
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
     </row>
-    <row r="4" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
     </row>
-    <row r="5" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
     </row>
-    <row r="6" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
     </row>
-    <row r="7" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
     </row>
-    <row r="8" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" ht="12.75">
       <c r="A8" s="5">
         <f>1554.4*0.25</f>
         <v>388.6</v>
@@ -1741,7 +1741,7 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
     </row>
-    <row r="9" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>130</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" ht="12.75">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
     </row>
-    <row r="11" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" ht="12.75">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1859,7 +1859,7 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
     </row>
-    <row r="12" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" ht="12.75">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
     </row>
-    <row r="13" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="12.75">
       <c r="A13" s="41">
         <v>1</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
     </row>
-    <row r="14" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="12.75">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -1967,19 +1967,19 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="T14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
@@ -1997,7 +1997,7 @@
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
     </row>
-    <row r="15" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="12.75">
       <c r="A15" s="41" t="s">
         <v>77</v>
       </c>
@@ -2037,7 +2037,7 @@
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
     </row>
-    <row r="16" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="12.75">
       <c r="A16" s="6">
         <v>2020</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="AJ16" s="42"/>
       <c r="AK16" s="42"/>
     </row>
-    <row r="17" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" ht="12.75">
       <c r="A17" s="41">
         <v>1</v>
       </c>
@@ -2191,13 +2191,13 @@
         <v>1</v>
       </c>
       <c r="R17" s="41">
+        <v>1</v>
+      </c>
+      <c r="S17" s="41">
         <v>0.75</v>
       </c>
-      <c r="S17" s="41">
+      <c r="T17" s="41">
         <v>0.5</v>
-      </c>
-      <c r="T17" s="41">
-        <v>0</v>
       </c>
       <c r="U17" s="41">
         <v>0</v>
@@ -2253,7 +2253,7 @@
       <c r="AX17" s="41"/>
       <c r="AY17" s="41"/>
     </row>
-    <row r="18" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" ht="12.75">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2291,7 +2291,7 @@
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
     </row>
-    <row r="19" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
     </row>
-    <row r="20" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="12.75">
       <c r="A20" s="9" t="s">
         <v>10</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="AI20" s="10"/>
       <c r="AJ20" s="10"/>
     </row>
-    <row r="21" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="12.75">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
     </row>
-    <row r="22" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" ht="12.75">
       <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
     </row>
-    <row r="23" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" ht="12.75">
       <c r="A23" s="13"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2489,7 +2489,7 @@
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
     </row>
-    <row r="24" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" ht="12.75">
       <c r="A24" s="13"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2527,7 +2527,7 @@
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
     </row>
-    <row r="25" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="12.75">
       <c r="A25" s="13"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2565,7 +2565,7 @@
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
     </row>
-    <row r="26" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" ht="12.75">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2603,7 +2603,7 @@
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
     </row>
-    <row r="27" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" ht="12.75">
       <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2641,7 +2641,7 @@
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
     </row>
-    <row r="28" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" ht="12.75">
       <c r="A28" s="13"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2679,7 +2679,7 @@
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
     </row>
-    <row r="29" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" ht="12.75">
       <c r="A29" s="13"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2717,7 +2717,7 @@
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
     </row>
-    <row r="30" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" ht="12.75">
       <c r="A30" s="13"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2755,7 +2755,7 @@
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
     </row>
-    <row r="31" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="12.75">
       <c r="A31" s="13"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2793,7 +2793,7 @@
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
     </row>
-    <row r="32" spans="1:51" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="12.75">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2831,7 +2831,7 @@
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
     </row>
-    <row r="33" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" ht="12.75">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2869,7 +2869,7 @@
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
     </row>
-    <row r="34" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="12.75">
       <c r="A34" s="13"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2907,7 +2907,7 @@
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
     </row>
-    <row r="35" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" ht="12.75">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2945,7 +2945,7 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
     </row>
-    <row r="36" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="12.75">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2983,7 +2983,7 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
     </row>
-    <row r="37" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="12.75">
       <c r="A37" s="13"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3021,7 +3021,7 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
     </row>
-    <row r="38" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="12.75">
       <c r="A38" s="13"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3059,7 +3059,7 @@
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
     </row>
-    <row r="39" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="12.75">
       <c r="A39" s="13"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3097,7 +3097,7 @@
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
     </row>
-    <row r="40" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="12.75">
       <c r="A40" s="13"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3135,7 +3135,7 @@
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
     </row>
-    <row r="41" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" ht="12.75">
       <c r="A41" s="5" t="s">
         <v>13</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
     </row>
-    <row r="42" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" ht="12.75">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
     </row>
-    <row r="43" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" ht="12.75">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
     </row>
-    <row r="44" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" ht="12.75">
       <c r="A44" s="5" t="s">
         <v>78</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
     </row>
-    <row r="45" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" ht="12.75">
       <c r="A45" s="6" t="s">
         <v>16</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
     </row>
-    <row r="46" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" ht="12.75">
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
     </row>
-    <row r="47" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" ht="12.75">
       <c r="A47" s="13"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3418,7 +3418,7 @@
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
     </row>
-    <row r="48" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" ht="12.75">
       <c r="A48" s="13"/>
       <c r="B48" s="13">
         <v>2022</v>
@@ -3514,7 +3514,7 @@
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
     </row>
-    <row r="49" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" ht="12.75">
       <c r="A49" s="15" t="s">
         <v>18</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
     </row>
-    <row r="50" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" ht="12.75">
       <c r="A50" s="15" t="s">
         <v>19</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
     </row>
-    <row r="51" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" ht="12.75">
       <c r="A51" s="13"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3749,7 +3749,7 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
     </row>
-    <row r="52" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" ht="12.75">
       <c r="A52" s="9" t="s">
         <v>20</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
     </row>
-    <row r="53" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" ht="12.75">
       <c r="A53" s="5" t="s">
         <v>21</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
     </row>
-    <row r="54" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" ht="12.75">
       <c r="A54" s="16" t="s">
         <v>22</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
     </row>
-    <row r="55" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" ht="12.75">
       <c r="A55" s="13"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3907,7 +3907,7 @@
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
     </row>
-    <row r="56" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" ht="12.75">
       <c r="A56" s="17" t="s">
         <v>23</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="AI56" s="5"/>
       <c r="AJ56" s="5"/>
     </row>
-    <row r="57" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" ht="12.75">
       <c r="A57" s="19" t="s">
         <v>26</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
     </row>
-    <row r="58" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" ht="12.75">
       <c r="A58" s="21" t="s">
         <v>28</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
     </row>
-    <row r="59" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" ht="12.75">
       <c r="A59" s="21" t="s">
         <v>29</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
     </row>
-    <row r="60" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" ht="12.75">
       <c r="A60" s="21" t="s">
         <v>30</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
     </row>
-    <row r="61" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" ht="12.75">
       <c r="A61" s="21" t="s">
         <v>31</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
     </row>
-    <row r="62" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" ht="12.75">
       <c r="A62" s="21" t="s">
         <v>32</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
     </row>
-    <row r="63" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" ht="12.75">
       <c r="A63" s="21" t="s">
         <v>33</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="AI63" s="5"/>
       <c r="AJ63" s="5"/>
     </row>
-    <row r="64" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" ht="12.75">
       <c r="A64" s="21" t="s">
         <v>34</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="AI64" s="5"/>
       <c r="AJ64" s="5"/>
     </row>
-    <row r="65" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" ht="12.75">
       <c r="A65" s="21" t="s">
         <v>35</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="AI65" s="5"/>
       <c r="AJ65" s="5"/>
     </row>
-    <row r="66" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" ht="12.75">
       <c r="A66" s="21" t="s">
         <v>36</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
     </row>
-    <row r="67" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" ht="12.75">
       <c r="A67" s="24" t="s">
         <v>37</v>
       </c>
@@ -4419,7 +4419,7 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
     </row>
-    <row r="68" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" ht="12.75">
       <c r="A68" s="13"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4457,7 +4457,7 @@
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
     </row>
-    <row r="69" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" ht="12.75">
       <c r="A69" s="5" t="s">
         <v>38</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
     </row>
-    <row r="70" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" ht="12.75">
       <c r="A70" s="5" t="s">
         <v>39</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
     </row>
-    <row r="71" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" ht="12.75">
       <c r="A71" s="5"/>
       <c r="B71" s="23"/>
       <c r="C71" s="5"/>
@@ -4581,7 +4581,7 @@
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
     </row>
-    <row r="72" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" ht="12.75">
       <c r="A72" s="5"/>
       <c r="B72" s="13">
         <v>2022</v>
@@ -4633,7 +4633,7 @@
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
     </row>
-    <row r="73" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" ht="12.75">
       <c r="A73" s="7" t="s">
         <v>40</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
     </row>
-    <row r="74" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" ht="12.75">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4732,7 +4732,7 @@
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
     </row>
-    <row r="75" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" ht="25.5">
       <c r="A75" s="7" t="s">
         <v>41</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
     </row>
-    <row r="76" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" ht="12.75">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4810,7 +4810,7 @@
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
     </row>
-    <row r="77" spans="1:36" s="26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" s="26" customFormat="1" ht="12.75">
       <c r="A77" s="15"/>
       <c r="B77" s="15">
         <v>2022</v>
@@ -4906,7 +4906,7 @@
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
     </row>
-    <row r="78" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" ht="12.75">
       <c r="A78" s="23" t="s">
         <v>42</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="AI78" s="23"/>
       <c r="AJ78" s="23"/>
     </row>
-    <row r="79" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" ht="12.75">
       <c r="A79" s="23" t="s">
         <v>43</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="AI79" s="23"/>
       <c r="AJ79" s="23"/>
     </row>
-    <row r="80" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" ht="12.75">
       <c r="A80" s="5" t="s">
         <v>44</v>
       </c>
@@ -5258,7 +5258,7 @@
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
     </row>
-    <row r="81" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" ht="12.75">
       <c r="A81" s="11"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
@@ -5296,7 +5296,7 @@
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
     </row>
-    <row r="82" spans="1:36" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" s="29" customFormat="1" ht="25.5">
       <c r="A82" s="7" t="s">
         <v>45</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="AI82" s="15"/>
       <c r="AJ82" s="15"/>
     </row>
-    <row r="83" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" ht="12.75">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -5432,7 +5432,7 @@
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
     </row>
-    <row r="84" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" ht="12.75">
       <c r="A84" s="9" t="s">
         <v>1</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="AI84" s="10"/>
       <c r="AJ84" s="10"/>
     </row>
-    <row r="85" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" ht="12.75">
       <c r="A85" s="11" t="s">
         <v>46</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
     </row>
-    <row r="86" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" ht="12.75">
       <c r="A86" s="11" t="s">
         <v>47</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="AI86" s="5"/>
       <c r="AJ86" s="5"/>
     </row>
-    <row r="87" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" ht="12.75">
       <c r="A87" s="11" t="s">
         <v>48</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="AI87" s="5"/>
       <c r="AJ87" s="5"/>
     </row>
-    <row r="88" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" ht="12.75">
       <c r="A88" s="11" t="s">
         <v>79</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="AI88" s="5"/>
       <c r="AJ88" s="5"/>
     </row>
-    <row r="89" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" ht="12.75">
       <c r="A89" s="11" t="s">
         <v>80</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="AI89" s="5"/>
       <c r="AJ89" s="5"/>
     </row>
-    <row r="90" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" ht="12.75">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5710,7 +5710,7 @@
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
     </row>
-    <row r="91" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" ht="12.75">
       <c r="A91" s="9" t="s">
         <v>81</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="AI91" s="9"/>
       <c r="AJ91" s="9"/>
     </row>
-    <row r="92" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" ht="12.75">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="5"/>
@@ -5788,7 +5788,7 @@
       <c r="AI92" s="5"/>
       <c r="AJ92" s="5"/>
     </row>
-    <row r="93" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" ht="12.75">
       <c r="A93" s="30" t="s">
         <v>82</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="AI93" s="5"/>
       <c r="AJ93" s="5"/>
     </row>
-    <row r="94" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" ht="12.75">
       <c r="A94" s="30" t="s">
         <v>83</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="AI94" s="5"/>
       <c r="AJ94" s="5"/>
     </row>
-    <row r="95" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" ht="12.75">
       <c r="A95" s="30" t="s">
         <v>84</v>
       </c>
@@ -5916,7 +5916,7 @@
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
     </row>
-    <row r="96" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" ht="12.75">
       <c r="A96" s="30" t="s">
         <v>86</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="AI96" s="5"/>
       <c r="AJ96" s="5"/>
     </row>
-    <row r="97" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:36" ht="17.25">
       <c r="A97" s="30" t="s">
         <v>87</v>
       </c>
@@ -6000,7 +6000,7 @@
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
     </row>
-    <row r="98" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:36" ht="17.25">
       <c r="A98" s="30"/>
       <c r="B98" s="46"/>
       <c r="C98" s="5"/>
@@ -6038,7 +6038,7 @@
       <c r="AI98" s="5"/>
       <c r="AJ98" s="5"/>
     </row>
-    <row r="99" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" ht="12.75">
       <c r="A99" s="30" t="s">
         <v>88</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="AI99" s="5"/>
       <c r="AJ99" s="5"/>
     </row>
-    <row r="100" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" ht="12.75">
       <c r="A100" s="30" t="s">
         <v>89</v>
       </c>
@@ -6124,7 +6124,7 @@
       <c r="AI100" s="5"/>
       <c r="AJ100" s="5"/>
     </row>
-    <row r="101" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" ht="12.75">
       <c r="A101" s="30" t="s">
         <v>49</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="AI101" s="5"/>
       <c r="AJ101" s="5"/>
     </row>
-    <row r="102" spans="1:36" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:36" ht="17.25">
       <c r="A102" s="30" t="s">
         <v>50</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="AI102" s="5"/>
       <c r="AJ102" s="5"/>
     </row>
-    <row r="103" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" ht="12.75">
       <c r="A103" s="30" t="s">
         <v>90</v>
       </c>
@@ -6252,7 +6252,7 @@
       <c r="AI103" s="5"/>
       <c r="AJ103" s="5"/>
     </row>
-    <row r="104" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" ht="12.75">
       <c r="A104" s="30" t="s">
         <v>51</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="AI104" s="5"/>
       <c r="AJ104" s="5"/>
     </row>
-    <row r="105" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" ht="12.75">
       <c r="A105" s="30" t="s">
         <v>52</v>
       </c>
@@ -6338,7 +6338,7 @@
       <c r="AI105" s="5"/>
       <c r="AJ105" s="5"/>
     </row>
-    <row r="106" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" ht="12.75">
       <c r="A106" s="30" t="s">
         <v>53</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="AI106" s="5"/>
       <c r="AJ106" s="5"/>
     </row>
-    <row r="107" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" ht="12.75">
       <c r="A107" s="30"/>
       <c r="B107" s="30"/>
       <c r="C107" s="5"/>
@@ -6418,7 +6418,7 @@
       <c r="AI107" s="5"/>
       <c r="AJ107" s="5"/>
     </row>
-    <row r="108" spans="1:36" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" s="35" customFormat="1" ht="12.75">
       <c r="A108" s="32" t="s">
         <v>93</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="AI108" s="34"/>
       <c r="AJ108" s="34"/>
     </row>
-    <row r="109" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" ht="12.75">
       <c r="A109" s="51"/>
       <c r="B109" s="30" t="s">
         <v>94</v>
@@ -6500,7 +6500,7 @@
       <c r="AI109" s="5"/>
       <c r="AJ109" s="5"/>
     </row>
-    <row r="110" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" ht="12.75">
       <c r="A110" s="51" t="s">
         <v>96</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="AI110" s="5"/>
       <c r="AJ110" s="5"/>
     </row>
-    <row r="111" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" ht="12.75">
       <c r="A111" s="51"/>
       <c r="B111" s="30"/>
       <c r="C111" s="5"/>
@@ -6582,7 +6582,7 @@
       <c r="AI111" s="5"/>
       <c r="AJ111" s="5"/>
     </row>
-    <row r="112" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" ht="12.75">
       <c r="A112" s="30"/>
       <c r="B112" s="30">
         <v>2023</v>
@@ -6675,7 +6675,7 @@
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
     </row>
-    <row r="113" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" ht="12.75">
       <c r="A113" s="30" t="s">
         <v>97</v>
       </c>
@@ -6749,15 +6749,15 @@
       </c>
       <c r="S113" s="36">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T113" s="36">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U113" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V113" s="36">
         <f t="shared" si="4"/>
@@ -6798,7 +6798,7 @@
       <c r="AH113" s="5"/>
       <c r="AI113" s="5"/>
     </row>
-    <row r="114" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" ht="12.75">
       <c r="A114" s="30" t="s">
         <v>98</v>
       </c>
@@ -6864,15 +6864,15 @@
       </c>
       <c r="Q114" s="36">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R114" s="36">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S114" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T114" s="36">
         <f t="shared" si="5"/>
@@ -6921,7 +6921,7 @@
       <c r="AH114" s="5"/>
       <c r="AI114" s="5"/>
     </row>
-    <row r="115" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" ht="12.75">
       <c r="A115" s="30"/>
       <c r="B115" s="30"/>
       <c r="C115" s="5"/>
@@ -6959,7 +6959,7 @@
       <c r="AI115" s="5"/>
       <c r="AJ115" s="5"/>
     </row>
-    <row r="116" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" ht="12.75">
       <c r="A116" s="30" t="s">
         <v>99</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="AI116" s="5"/>
       <c r="AJ116" s="5"/>
     </row>
-    <row r="117" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" ht="12.75">
       <c r="A117" s="30"/>
       <c r="B117" s="30">
         <v>2023</v>
@@ -7093,7 +7093,7 @@
       <c r="AI117" s="5"/>
       <c r="AJ117" s="5"/>
     </row>
-    <row r="118" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" ht="12.75">
       <c r="A118" s="30" t="s">
         <v>100</v>
       </c>
@@ -7167,15 +7167,15 @@
       </c>
       <c r="S118" s="37">
         <f t="shared" si="6"/>
-        <v>17.715285878499422</v>
+        <v>23.620381171332561</v>
       </c>
       <c r="T118" s="37">
         <f t="shared" si="6"/>
-        <v>11.81019058566628</v>
+        <v>17.715285878499422</v>
       </c>
       <c r="U118" s="37">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11.81019058566628</v>
       </c>
       <c r="V118" s="37">
         <f t="shared" si="6"/>
@@ -7217,7 +7217,7 @@
       <c r="AI118" s="5"/>
       <c r="AJ118" s="5"/>
     </row>
-    <row r="119" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="12.75">
       <c r="A119" s="30"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -7255,7 +7255,7 @@
       <c r="AI119" s="5"/>
       <c r="AJ119" s="5"/>
     </row>
-    <row r="120" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" ht="12.75">
       <c r="A120" s="30" t="s">
         <v>101</v>
       </c>
@@ -7318,15 +7318,15 @@
       </c>
       <c r="Q120" s="37">
         <f t="shared" si="7"/>
-        <v>17.288537268858313</v>
+        <v>23.051383025144418</v>
       </c>
       <c r="R120" s="37">
         <f t="shared" si="7"/>
-        <v>11.525691512572209</v>
+        <v>17.288537268858313</v>
       </c>
       <c r="S120" s="37">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>11.525691512572209</v>
       </c>
       <c r="T120" s="37">
         <f t="shared" si="7"/>
@@ -7376,7 +7376,7 @@
       <c r="AI120" s="5"/>
       <c r="AJ120" s="5"/>
     </row>
-    <row r="121" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" ht="12.75">
       <c r="A121" s="30" t="s">
         <v>102</v>
       </c>
@@ -7416,7 +7416,7 @@
       <c r="AI121" s="5"/>
       <c r="AJ121" s="5"/>
     </row>
-    <row r="122" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" ht="12.75">
       <c r="A122" s="30"/>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
@@ -7454,7 +7454,7 @@
       <c r="AI122" s="5"/>
       <c r="AJ122" s="5"/>
     </row>
-    <row r="123" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" ht="12.75">
       <c r="A123" s="30" t="s">
         <v>103</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="AI123" s="5"/>
       <c r="AJ123" s="5"/>
     </row>
-    <row r="124" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" ht="12.75">
       <c r="A124" s="30"/>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
@@ -7598,7 +7598,7 @@
       <c r="AI124" s="5"/>
       <c r="AJ124" s="5"/>
     </row>
-    <row r="125" spans="1:36" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" s="35" customFormat="1" ht="12.75">
       <c r="A125" s="32" t="s">
         <v>54</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="AI125" s="34"/>
       <c r="AJ125" s="34"/>
     </row>
-    <row r="126" spans="1:36" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" ht="25.5">
       <c r="A126" s="51"/>
       <c r="B126" s="5" t="s">
         <v>104</v>
@@ -7685,7 +7685,7 @@
       <c r="AH126" s="5"/>
       <c r="AI126" s="5"/>
     </row>
-    <row r="127" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" ht="12.75">
       <c r="A127" s="51" t="s">
         <v>96</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="AH127" s="5"/>
       <c r="AI127" s="5"/>
     </row>
-    <row r="128" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" ht="12.75">
       <c r="A128" s="51"/>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
@@ -7772,7 +7772,7 @@
       <c r="AI128" s="5"/>
       <c r="AJ128" s="5"/>
     </row>
-    <row r="129" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" ht="12.75">
       <c r="A129" s="30" t="s">
         <v>55</v>
       </c>
@@ -7867,7 +7867,7 @@
       <c r="AH129" s="5"/>
       <c r="AI129" s="5"/>
     </row>
-    <row r="130" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" ht="12.75">
       <c r="A130" s="30" t="s">
         <v>108</v>
       </c>
@@ -7941,15 +7941,15 @@
       </c>
       <c r="S130" s="36">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T130" s="36">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U130" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V130" s="36">
         <f t="shared" si="9"/>
@@ -7990,7 +7990,7 @@
       <c r="AH130" s="5"/>
       <c r="AI130" s="5"/>
     </row>
-    <row r="131" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" ht="12.75">
       <c r="A131" s="30" t="s">
         <v>109</v>
       </c>
@@ -8064,15 +8064,15 @@
       </c>
       <c r="S131" s="36">
         <f t="shared" si="10"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T131" s="36">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U131" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V131" s="36">
         <f t="shared" si="10"/>
@@ -8113,7 +8113,7 @@
       <c r="AH131" s="5"/>
       <c r="AI131" s="5"/>
     </row>
-    <row r="132" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" ht="12.75">
       <c r="A132" s="30" t="s">
         <v>110</v>
       </c>
@@ -8183,15 +8183,15 @@
       </c>
       <c r="R132" s="36">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="S132" s="36">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="T132" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U132" s="36">
         <f t="shared" si="11"/>
@@ -8236,7 +8236,7 @@
       <c r="AH132" s="5"/>
       <c r="AI132" s="5"/>
     </row>
-    <row r="133" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" ht="12.75">
       <c r="A133" s="30" t="s">
         <v>111</v>
       </c>
@@ -8310,15 +8310,15 @@
       </c>
       <c r="S133" s="36">
         <f t="shared" si="12"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T133" s="36">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="U133" s="36">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V133" s="36">
         <f t="shared" si="12"/>
@@ -8359,7 +8359,7 @@
       <c r="AH133" s="5"/>
       <c r="AI133" s="5"/>
     </row>
-    <row r="134" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" ht="12.75">
       <c r="A134" s="30" t="s">
         <v>129</v>
       </c>
@@ -8425,15 +8425,15 @@
       </c>
       <c r="Q134" s="36">
         <f t="shared" si="13"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R134" s="36">
         <f t="shared" si="13"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="S134" s="36">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T134" s="36">
         <f t="shared" si="13"/>
@@ -8483,7 +8483,7 @@
       <c r="AI134" s="5"/>
       <c r="AJ134" s="5"/>
     </row>
-    <row r="135" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" ht="12.75">
       <c r="A135" s="13"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -8521,7 +8521,7 @@
       <c r="AI135" s="5"/>
       <c r="AJ135" s="5"/>
     </row>
-    <row r="136" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" ht="12.75">
       <c r="A136" s="30" t="s">
         <v>56</v>
       </c>
@@ -8563,7 +8563,7 @@
       <c r="AI136" s="5"/>
       <c r="AJ136" s="5"/>
     </row>
-    <row r="137" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" ht="12.75">
       <c r="A137" s="30" t="s">
         <v>57</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="AI137" s="5"/>
       <c r="AJ137" s="5"/>
     </row>
-    <row r="138" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" ht="12.75">
       <c r="A138" s="30" t="s">
         <v>49</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="AI138" s="5"/>
       <c r="AJ138" s="5"/>
     </row>
-    <row r="139" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" ht="12.75">
       <c r="A139" s="30" t="s">
         <v>50</v>
       </c>
@@ -8689,7 +8689,7 @@
       <c r="AI139" s="5"/>
       <c r="AJ139" s="5"/>
     </row>
-    <row r="140" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" ht="12.75">
       <c r="A140" s="5" t="s">
         <v>51</v>
       </c>
@@ -8731,7 +8731,7 @@
       <c r="AI140" s="5"/>
       <c r="AJ140" s="5"/>
     </row>
-    <row r="141" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" ht="12.75">
       <c r="A141" s="30" t="s">
         <v>52</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="AI141" s="5"/>
       <c r="AJ141" s="5"/>
     </row>
-    <row r="142" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" ht="12.75">
       <c r="A142" s="30" t="s">
         <v>53</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="AI142" s="5"/>
       <c r="AJ142" s="5"/>
     </row>
-    <row r="143" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" ht="12.75">
       <c r="A143" s="13"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -8853,7 +8853,7 @@
       <c r="AI143" s="5"/>
       <c r="AJ143" s="5"/>
     </row>
-    <row r="144" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" ht="12.75">
       <c r="A144" s="40" t="s">
         <v>58</v>
       </c>
@@ -8893,7 +8893,7 @@
       <c r="AI144" s="5"/>
       <c r="AJ144" s="5"/>
     </row>
-    <row r="145" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:74" ht="12.75">
       <c r="A145" s="30"/>
       <c r="B145" s="30">
         <v>2023</v>
@@ -8987,7 +8987,7 @@
       <c r="AI145" s="5"/>
       <c r="AJ145" s="5"/>
     </row>
-    <row r="146" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:74" ht="12.75">
       <c r="A146" s="5" t="s">
         <v>112</v>
       </c>
@@ -9086,7 +9086,7 @@
       <c r="AI146" s="5"/>
       <c r="AJ146" s="5"/>
     </row>
-    <row r="147" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:74" ht="12.75">
       <c r="A147" s="30" t="s">
         <v>102</v>
       </c>
@@ -9126,7 +9126,7 @@
       <c r="AI147" s="5"/>
       <c r="AJ147" s="5"/>
     </row>
-    <row r="148" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:74" ht="12.75">
       <c r="A148" s="30"/>
       <c r="B148" s="37">
         <v>2023</v>
@@ -9220,7 +9220,7 @@
       <c r="AI148" s="5"/>
       <c r="AJ148" s="5"/>
     </row>
-    <row r="149" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:74" ht="12.75">
       <c r="A149" s="5" t="s">
         <v>113</v>
       </c>
@@ -9294,15 +9294,15 @@
       </c>
       <c r="S149" s="37">
         <f t="shared" si="14"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="T149" s="37">
         <f t="shared" si="14"/>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="U149" s="37">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="V149" s="37">
         <f t="shared" si="14"/>
@@ -9344,7 +9344,7 @@
       <c r="AI149" s="5"/>
       <c r="AJ149" s="5"/>
     </row>
-    <row r="150" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:74" ht="12.75">
       <c r="A150" s="5"/>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
@@ -9382,7 +9382,7 @@
       <c r="AI150" s="5"/>
       <c r="AJ150" s="5"/>
     </row>
-    <row r="151" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:74" ht="12.75">
       <c r="A151" s="30"/>
       <c r="B151" s="37">
         <v>2023</v>
@@ -9476,7 +9476,7 @@
       <c r="AI151" s="5"/>
       <c r="AJ151" s="5"/>
     </row>
-    <row r="152" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:74" ht="12.75">
       <c r="A152" s="5" t="s">
         <v>114</v>
       </c>
@@ -9546,15 +9546,15 @@
       </c>
       <c r="R152" s="37">
         <f t="shared" si="15"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="S152" s="37">
         <f t="shared" si="15"/>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="T152" s="37">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="U152" s="37">
         <f t="shared" si="15"/>
@@ -9600,7 +9600,7 @@
       <c r="AI152" s="5"/>
       <c r="AJ152" s="5"/>
     </row>
-    <row r="153" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:74" ht="12.75">
       <c r="A153" s="30"/>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
@@ -9638,7 +9638,7 @@
       <c r="AI153" s="5"/>
       <c r="AJ153" s="5"/>
     </row>
-    <row r="154" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:74" ht="12.75">
       <c r="A154" s="30"/>
       <c r="B154" s="37">
         <v>2023</v>
@@ -9732,7 +9732,7 @@
       <c r="AI154" s="5"/>
       <c r="AJ154" s="5"/>
     </row>
-    <row r="155" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:74" ht="12.75">
       <c r="A155" s="5" t="s">
         <v>59</v>
       </c>
@@ -9806,15 +9806,15 @@
       </c>
       <c r="S155" s="37">
         <f t="shared" si="16"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="T155" s="37">
         <f t="shared" si="16"/>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="U155" s="37">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="V155" s="37">
         <f t="shared" si="16"/>
@@ -9856,7 +9856,7 @@
       <c r="AI155" s="5"/>
       <c r="AJ155" s="5"/>
     </row>
-    <row r="156" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:74" ht="12.75">
       <c r="A156" s="5"/>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
@@ -9894,7 +9894,7 @@
       <c r="AI156" s="5"/>
       <c r="AJ156" s="5"/>
     </row>
-    <row r="157" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:74" ht="12.75">
       <c r="A157" s="30"/>
       <c r="B157" s="37">
         <v>2023</v>
@@ -9988,7 +9988,7 @@
       <c r="AI157" s="5"/>
       <c r="AJ157" s="5"/>
     </row>
-    <row r="158" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:74" ht="12.75">
       <c r="A158" s="5" t="s">
         <v>127</v>
       </c>
@@ -10054,15 +10054,15 @@
       </c>
       <c r="Q158" s="37">
         <f t="shared" si="17"/>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="R158" s="37">
         <f t="shared" si="17"/>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="S158" s="37">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="T158" s="37">
         <f t="shared" si="17"/>
@@ -10112,7 +10112,7 @@
       <c r="AI158" s="5"/>
       <c r="AJ158" s="5"/>
     </row>
-    <row r="159" spans="1:74" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:74" s="35" customFormat="1" ht="12.75">
       <c r="A159" s="32" t="s">
         <v>115</v>
       </c>
@@ -10152,7 +10152,7 @@
       <c r="AI159" s="34"/>
       <c r="AJ159" s="34"/>
     </row>
-    <row r="160" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:74" ht="12.75">
       <c r="A160" s="5"/>
       <c r="B160" s="5">
         <v>2023</v>
@@ -10284,7 +10284,7 @@
       <c r="BU160" s="5"/>
       <c r="BV160" s="5"/>
     </row>
-    <row r="161" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:74" ht="12.75">
       <c r="A161" s="5" t="s">
         <v>116</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="BU161" s="5"/>
       <c r="BV161" s="5"/>
     </row>
-    <row r="162" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:74" ht="12.75">
       <c r="A162" s="5" t="s">
         <v>117</v>
       </c>
@@ -10580,7 +10580,7 @@
       <c r="BU162" s="5"/>
       <c r="BV162" s="5"/>
     </row>
-    <row r="163" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:74" ht="12.75">
       <c r="A163" s="5"/>
       <c r="B163" s="27"/>
       <c r="C163" s="27"/>
@@ -10656,7 +10656,7 @@
       <c r="BU163" s="5"/>
       <c r="BV163" s="5"/>
     </row>
-    <row r="164" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:74" ht="12.75">
       <c r="A164" s="5" t="s">
         <v>54</v>
       </c>
@@ -10818,7 +10818,7 @@
       <c r="BU164" s="5"/>
       <c r="BV164" s="5"/>
     </row>
-    <row r="165" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:74" ht="12.75">
       <c r="A165" s="5" t="s">
         <v>93</v>
       </c>
@@ -10884,15 +10884,15 @@
       </c>
       <c r="Q165" s="53">
         <f t="shared" si="19"/>
-        <v>17.288537268858313</v>
+        <v>23.051383025144418</v>
       </c>
       <c r="R165" s="53">
         <f t="shared" si="19"/>
-        <v>11.525691512572209</v>
+        <v>17.288537268858313</v>
       </c>
       <c r="S165" s="53">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>11.525691512572209</v>
       </c>
       <c r="T165" s="53">
         <f t="shared" si="19"/>
@@ -10980,7 +10980,7 @@
       <c r="BU165" s="5"/>
       <c r="BV165" s="5"/>
     </row>
-    <row r="166" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:74" ht="12.75">
       <c r="A166" s="5"/>
       <c r="B166" s="53"/>
       <c r="C166" s="53"/>
@@ -11056,7 +11056,7 @@
       <c r="BU166" s="5"/>
       <c r="BV166" s="5"/>
     </row>
-    <row r="167" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:74" ht="12.75">
       <c r="A167" s="5" t="s">
         <v>118</v>
       </c>
@@ -11136,7 +11136,7 @@
       <c r="BU167" s="5"/>
       <c r="BV167" s="5"/>
     </row>
-    <row r="168" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:74" ht="12.75">
       <c r="A168" s="5" t="s">
         <v>119</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="BU168" s="5"/>
       <c r="BV168" s="5"/>
     </row>
-    <row r="169" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:74" ht="12.75">
       <c r="A169" s="5" t="s">
         <v>120</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="BU169" s="5"/>
       <c r="BV169" s="5"/>
     </row>
-    <row r="170" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:74" ht="12.75">
       <c r="A170" s="5" t="s">
         <v>121</v>
       </c>
@@ -11458,7 +11458,7 @@
       <c r="BU170" s="5"/>
       <c r="BV170" s="5"/>
     </row>
-    <row r="171" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:74" ht="12.75">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -11534,7 +11534,7 @@
       <c r="BU171" s="5"/>
       <c r="BV171" s="5"/>
     </row>
-    <row r="172" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:74" ht="12.75">
       <c r="A172" s="5" t="s">
         <v>122</v>
       </c>
@@ -11696,7 +11696,7 @@
       <c r="BU172" s="5"/>
       <c r="BV172" s="5"/>
     </row>
-    <row r="173" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:74" ht="12.75">
       <c r="A173" s="5" t="s">
         <v>123</v>
       </c>
@@ -11762,15 +11762,15 @@
       </c>
       <c r="Q173" s="54">
         <f t="shared" si="22"/>
-        <v>3786189.6618799707</v>
+        <v>5048252.8825066276</v>
       </c>
       <c r="R173" s="54">
         <f t="shared" si="22"/>
-        <v>2524126.4412533138</v>
+        <v>3786189.6618799707</v>
       </c>
       <c r="S173" s="54">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2524126.4412533138</v>
       </c>
       <c r="T173" s="54">
         <f t="shared" si="22"/>
@@ -11858,7 +11858,7 @@
       <c r="BU173" s="5"/>
       <c r="BV173" s="5"/>
     </row>
-    <row r="174" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:74" ht="12.75">
       <c r="A174" s="5" t="s">
         <v>124</v>
       </c>
@@ -11924,15 +11924,15 @@
       </c>
       <c r="Q174" s="54">
         <f t="shared" si="23"/>
-        <v>35384950.111027762</v>
+        <v>47179933.481370352</v>
       </c>
       <c r="R174" s="54">
         <f t="shared" si="23"/>
-        <v>23589966.740685176</v>
+        <v>35384950.111027762</v>
       </c>
       <c r="S174" s="54">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>23589966.740685176</v>
       </c>
       <c r="T174" s="54">
         <f t="shared" si="23"/>
@@ -12020,7 +12020,7 @@
       <c r="BU174" s="5"/>
       <c r="BV174" s="5"/>
     </row>
-    <row r="175" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:74" ht="12.75">
       <c r="A175" s="5" t="s">
         <v>125</v>
       </c>
@@ -12086,15 +12086,15 @@
       </c>
       <c r="Q175" s="54">
         <f t="shared" si="24"/>
-        <v>37861896.618799709</v>
+        <v>50482528.825066276</v>
       </c>
       <c r="R175" s="54">
         <f t="shared" si="24"/>
-        <v>25241264.412533138</v>
+        <v>37861896.618799709</v>
       </c>
       <c r="S175" s="54">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>25241264.412533138</v>
       </c>
       <c r="T175" s="54">
         <f t="shared" si="24"/>
@@ -12182,7 +12182,7 @@
       <c r="BU175" s="5"/>
       <c r="BV175" s="5"/>
     </row>
-    <row r="176" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:74" ht="12.75">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -12258,7 +12258,7 @@
       <c r="BU176" s="5"/>
       <c r="BV176" s="5"/>
     </row>
-    <row r="177" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:74" ht="12.75">
       <c r="A177" s="5" t="s">
         <v>126</v>
       </c>
@@ -12420,7 +12420,7 @@
       <c r="BU177" s="5"/>
       <c r="BV177" s="5"/>
     </row>
-    <row r="178" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:74" ht="12.75">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -12496,7 +12496,7 @@
       <c r="BU178" s="5"/>
       <c r="BV178" s="5"/>
     </row>
-    <row r="179" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:74" ht="12.75">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -12572,7 +12572,7 @@
       <c r="BU179" s="5"/>
       <c r="BV179" s="5"/>
     </row>
-    <row r="180" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:74" ht="12.75">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -12648,7 +12648,7 @@
       <c r="BU180" s="5"/>
       <c r="BV180" s="5"/>
     </row>
-    <row r="181" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:74" ht="12.75">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -12724,7 +12724,7 @@
       <c r="BU181" s="5"/>
       <c r="BV181" s="5"/>
     </row>
-    <row r="182" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:74" ht="12.75">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -12800,7 +12800,7 @@
       <c r="BU182" s="5"/>
       <c r="BV182" s="5"/>
     </row>
-    <row r="183" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:74" ht="12.75">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -12876,7 +12876,7 @@
       <c r="BU183" s="5"/>
       <c r="BV183" s="5"/>
     </row>
-    <row r="184" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:74" ht="12.75">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -12952,7 +12952,7 @@
       <c r="BU184" s="5"/>
       <c r="BV184" s="5"/>
     </row>
-    <row r="185" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:74" ht="12.75">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -13028,7 +13028,7 @@
       <c r="BU185" s="5"/>
       <c r="BV185" s="5"/>
     </row>
-    <row r="186" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:74" ht="12.75">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -13104,7 +13104,7 @@
       <c r="BU186" s="5"/>
       <c r="BV186" s="5"/>
     </row>
-    <row r="187" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:74" ht="12.75">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -13180,7 +13180,7 @@
       <c r="BU187" s="5"/>
       <c r="BV187" s="5"/>
     </row>
-    <row r="188" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:74" ht="12.75">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -13256,7 +13256,7 @@
       <c r="BU188" s="5"/>
       <c r="BV188" s="5"/>
     </row>
-    <row r="189" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:74" ht="12.75">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -13332,7 +13332,7 @@
       <c r="BU189" s="5"/>
       <c r="BV189" s="5"/>
     </row>
-    <row r="190" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:74" ht="12.75">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -13408,7 +13408,7 @@
       <c r="BU190" s="5"/>
       <c r="BV190" s="5"/>
     </row>
-    <row r="191" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:74" ht="12.75">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -13484,7 +13484,7 @@
       <c r="BU191" s="5"/>
       <c r="BV191" s="5"/>
     </row>
-    <row r="192" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:74" ht="12.75">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -13560,7 +13560,7 @@
       <c r="BU192" s="5"/>
       <c r="BV192" s="5"/>
     </row>
-    <row r="193" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:74" ht="12.75">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -13636,7 +13636,7 @@
       <c r="BU193" s="5"/>
       <c r="BV193" s="5"/>
     </row>
-    <row r="194" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:74" ht="12.75">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -13712,7 +13712,7 @@
       <c r="BU194" s="5"/>
       <c r="BV194" s="5"/>
     </row>
-    <row r="195" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:74" ht="12.75">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -13788,7 +13788,7 @@
       <c r="BU195" s="5"/>
       <c r="BV195" s="5"/>
     </row>
-    <row r="196" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:74" ht="12.75">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -13864,7 +13864,7 @@
       <c r="BU196" s="5"/>
       <c r="BV196" s="5"/>
     </row>
-    <row r="197" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:74" ht="12.75">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -13940,7 +13940,7 @@
       <c r="BU197" s="5"/>
       <c r="BV197" s="5"/>
     </row>
-    <row r="198" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:74" ht="12.75">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -14016,7 +14016,7 @@
       <c r="BU198" s="5"/>
       <c r="BV198" s="5"/>
     </row>
-    <row r="199" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:74" ht="12.75">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -14092,7 +14092,7 @@
       <c r="BU199" s="5"/>
       <c r="BV199" s="5"/>
     </row>
-    <row r="200" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:74" ht="12.75">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -14168,7 +14168,7 @@
       <c r="BU200" s="5"/>
       <c r="BV200" s="5"/>
     </row>
-    <row r="201" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:74" ht="12.75">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -14244,7 +14244,7 @@
       <c r="BU201" s="5"/>
       <c r="BV201" s="5"/>
     </row>
-    <row r="202" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:74" ht="12.75">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -14320,7 +14320,7 @@
       <c r="BU202" s="5"/>
       <c r="BV202" s="5"/>
     </row>
-    <row r="203" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:74" ht="12.75">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -14396,7 +14396,7 @@
       <c r="BU203" s="5"/>
       <c r="BV203" s="5"/>
     </row>
-    <row r="204" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:74" ht="12.75">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -14472,7 +14472,7 @@
       <c r="BU204" s="5"/>
       <c r="BV204" s="5"/>
     </row>
-    <row r="205" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:74" ht="12.75">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -14548,7 +14548,7 @@
       <c r="BU205" s="5"/>
       <c r="BV205" s="5"/>
     </row>
-    <row r="206" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:74" ht="12.75">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -14624,7 +14624,7 @@
       <c r="BU206" s="5"/>
       <c r="BV206" s="5"/>
     </row>
-    <row r="207" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:74" ht="12.75">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -14700,7 +14700,7 @@
       <c r="BU207" s="5"/>
       <c r="BV207" s="5"/>
     </row>
-    <row r="208" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:74" ht="12.75">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -14776,7 +14776,7 @@
       <c r="BU208" s="5"/>
       <c r="BV208" s="5"/>
     </row>
-    <row r="209" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:74" ht="12.75">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -14852,7 +14852,7 @@
       <c r="BU209" s="5"/>
       <c r="BV209" s="5"/>
     </row>
-    <row r="210" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:74" ht="12.75">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -14928,7 +14928,7 @@
       <c r="BU210" s="5"/>
       <c r="BV210" s="5"/>
     </row>
-    <row r="211" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:74" ht="12.75">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -15004,7 +15004,7 @@
       <c r="BU211" s="5"/>
       <c r="BV211" s="5"/>
     </row>
-    <row r="212" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:74" ht="12.75">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -15080,7 +15080,7 @@
       <c r="BU212" s="5"/>
       <c r="BV212" s="5"/>
     </row>
-    <row r="213" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:74" ht="12.75">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -15156,7 +15156,7 @@
       <c r="BU213" s="5"/>
       <c r="BV213" s="5"/>
     </row>
-    <row r="214" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:74" ht="12.75">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -15232,7 +15232,7 @@
       <c r="BU214" s="5"/>
       <c r="BV214" s="5"/>
     </row>
-    <row r="215" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:74" ht="12.75">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -15308,7 +15308,7 @@
       <c r="BU215" s="5"/>
       <c r="BV215" s="5"/>
     </row>
-    <row r="216" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:74" ht="12.75">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -15384,7 +15384,7 @@
       <c r="BU216" s="5"/>
       <c r="BV216" s="5"/>
     </row>
-    <row r="217" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:74" ht="12.75">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -15460,7 +15460,7 @@
       <c r="BU217" s="5"/>
       <c r="BV217" s="5"/>
     </row>
-    <row r="218" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:74" ht="12.75">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -15536,7 +15536,7 @@
       <c r="BU218" s="5"/>
       <c r="BV218" s="5"/>
     </row>
-    <row r="219" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:74" ht="12.75">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -15612,7 +15612,7 @@
       <c r="BU219" s="5"/>
       <c r="BV219" s="5"/>
     </row>
-    <row r="220" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:74" ht="12.75">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -15688,7 +15688,7 @@
       <c r="BU220" s="5"/>
       <c r="BV220" s="5"/>
     </row>
-    <row r="221" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:74" ht="12.75">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -15764,7 +15764,7 @@
       <c r="BU221" s="5"/>
       <c r="BV221" s="5"/>
     </row>
-    <row r="222" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:74" ht="12.75">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -15840,7 +15840,7 @@
       <c r="BU222" s="5"/>
       <c r="BV222" s="5"/>
     </row>
-    <row r="223" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:74" ht="12.75">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -15916,7 +15916,7 @@
       <c r="BU223" s="5"/>
       <c r="BV223" s="5"/>
     </row>
-    <row r="224" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:74" ht="12.75">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -15992,7 +15992,7 @@
       <c r="BU224" s="5"/>
       <c r="BV224" s="5"/>
     </row>
-    <row r="225" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:74" ht="12.75">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -16068,7 +16068,7 @@
       <c r="BU225" s="5"/>
       <c r="BV225" s="5"/>
     </row>
-    <row r="226" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:74" ht="12.75">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -16144,7 +16144,7 @@
       <c r="BU226" s="5"/>
       <c r="BV226" s="5"/>
     </row>
-    <row r="227" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:74" ht="12.75">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -16220,7 +16220,7 @@
       <c r="BU227" s="5"/>
       <c r="BV227" s="5"/>
     </row>
-    <row r="228" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:74" ht="12.75">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -16296,7 +16296,7 @@
       <c r="BU228" s="5"/>
       <c r="BV228" s="5"/>
     </row>
-    <row r="229" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:74" ht="12.75">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -16372,7 +16372,7 @@
       <c r="BU229" s="5"/>
       <c r="BV229" s="5"/>
     </row>
-    <row r="230" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:74" ht="12.75">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -16448,7 +16448,7 @@
       <c r="BU230" s="5"/>
       <c r="BV230" s="5"/>
     </row>
-    <row r="231" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:74" ht="12.75">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -16524,7 +16524,7 @@
       <c r="BU231" s="5"/>
       <c r="BV231" s="5"/>
     </row>
-    <row r="232" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:74" ht="12.75">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -16600,7 +16600,7 @@
       <c r="BU232" s="5"/>
       <c r="BV232" s="5"/>
     </row>
-    <row r="233" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:74" ht="12.75">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -16676,7 +16676,7 @@
       <c r="BU233" s="5"/>
       <c r="BV233" s="5"/>
     </row>
-    <row r="234" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:74" ht="12.75">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -16752,7 +16752,7 @@
       <c r="BU234" s="5"/>
       <c r="BV234" s="5"/>
     </row>
-    <row r="235" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:74" ht="12.75">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -16828,7 +16828,7 @@
       <c r="BU235" s="5"/>
       <c r="BV235" s="5"/>
     </row>
-    <row r="236" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:74" ht="12.75">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -16904,7 +16904,7 @@
       <c r="BU236" s="5"/>
       <c r="BV236" s="5"/>
     </row>
-    <row r="237" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:74" ht="12.75">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -16980,7 +16980,7 @@
       <c r="BU237" s="5"/>
       <c r="BV237" s="5"/>
     </row>
-    <row r="238" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:74" ht="12.75">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -17056,7 +17056,7 @@
       <c r="BU238" s="5"/>
       <c r="BV238" s="5"/>
     </row>
-    <row r="239" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:74" ht="12.75">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -17132,7 +17132,7 @@
       <c r="BU239" s="5"/>
       <c r="BV239" s="5"/>
     </row>
-    <row r="240" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:74" ht="12.75">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -17208,7 +17208,7 @@
       <c r="BU240" s="5"/>
       <c r="BV240" s="5"/>
     </row>
-    <row r="241" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:74" ht="12.75">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -17284,7 +17284,7 @@
       <c r="BU241" s="5"/>
       <c r="BV241" s="5"/>
     </row>
-    <row r="242" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:74" ht="12.75">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -17322,7 +17322,7 @@
       <c r="AI242" s="5"/>
       <c r="AJ242" s="5"/>
     </row>
-    <row r="243" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:74" ht="12.75">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -17360,7 +17360,7 @@
       <c r="AI243" s="5"/>
       <c r="AJ243" s="5"/>
     </row>
-    <row r="244" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:74" ht="12.75">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -17398,7 +17398,7 @@
       <c r="AI244" s="5"/>
       <c r="AJ244" s="5"/>
     </row>
-    <row r="245" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:74" ht="12.75">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -17436,7 +17436,7 @@
       <c r="AI245" s="5"/>
       <c r="AJ245" s="5"/>
     </row>
-    <row r="246" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:74" ht="12.75">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -17474,7 +17474,7 @@
       <c r="AI246" s="5"/>
       <c r="AJ246" s="5"/>
     </row>
-    <row r="247" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:74" ht="12.75">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -17512,7 +17512,7 @@
       <c r="AI247" s="5"/>
       <c r="AJ247" s="5"/>
     </row>
-    <row r="248" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:74" ht="12.75">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -17550,7 +17550,7 @@
       <c r="AI248" s="5"/>
       <c r="AJ248" s="5"/>
     </row>
-    <row r="249" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:74" ht="12.75">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -17588,7 +17588,7 @@
       <c r="AI249" s="5"/>
       <c r="AJ249" s="5"/>
     </row>
-    <row r="250" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:74" ht="12.75">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -17626,7 +17626,7 @@
       <c r="AI250" s="5"/>
       <c r="AJ250" s="5"/>
     </row>
-    <row r="251" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:74" ht="12.75">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -17664,7 +17664,7 @@
       <c r="AI251" s="5"/>
       <c r="AJ251" s="5"/>
     </row>
-    <row r="252" spans="1:74" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:74" ht="12.75">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -17725,12 +17725,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="30">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -17897,15 +17897,15 @@
       </c>
       <c r="S2" s="2">
         <f>'Inflation Reduction Act - Elec'!Q158</f>
-        <v>0.31218750000000001</v>
+        <v>0.41625000000000001</v>
       </c>
       <c r="T2" s="2">
         <f>'Inflation Reduction Act - Elec'!R158</f>
-        <v>0.208125</v>
+        <v>0.31218750000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'Inflation Reduction Act - Elec'!S158</f>
-        <v>0</v>
+        <v>0.208125</v>
       </c>
       <c r="V2" s="2">
         <f>'Inflation Reduction Act - Elec'!T158</f>
